--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
@@ -426,7 +426,7 @@
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>-0.7258201309573775</v>
+        <v>0.5087393606160395</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +437,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.324983933426882</v>
+        <v>-1.118515468742087</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.4252238776383699</v>
+        <v>-0.6296678961043134</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +454,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.3900454704678369</v>
+        <v>-0.1156872058426073</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.608538493861166</v>
+        <v>-0.5120992642018263</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +471,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>-0.2995848153489522</v>
+        <v>-0.4084169314491404</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>-0.007565898326467035</v>
+        <v>-0.6403426624573716</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +488,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.2075757021743008</v>
+        <v>-0.2188016966516937</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.07493742497184375</v>
+        <v>-0.1561757764150462</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +505,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.124712275190686</v>
+        <v>0.05915234751026066</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.02565626552746281</v>
+        <v>0.04624521867206965</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +522,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.255298189276465</v>
+        <v>-0.2979029954603529</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.05470007129930732</v>
+        <v>-0.1124510725819206</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +539,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07418514192796266</v>
+        <v>0.07317408757452348</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.1118063021044113</v>
+        <v>-0.002181547367274828</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.07611406013281474</v>
+        <v>-0.06188089372189953</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.1441854746430216</v>
+        <v>-0.07932008107318644</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.191300579729714</v>
+        <v>-0.2199961235931358</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.09771527089190712</v>
+        <v>-0.1022879117640763</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +590,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.1141271696349921</v>
+        <v>0.0882025545300813</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.1267333805689663</v>
+        <v>-0.05573300569792217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +607,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.7251499616078294</v>
+        <v>-0.7844010209450802</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.1802771585606822</v>
+        <v>-0.3786583343736716</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>0.2662518592309704</v>
+        <v>-0.1808804304865297</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.7718622268289566</v>
+        <v>-0.1077309791980285</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.798036187070017</v>
+        <v>-0.8769761459347714</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.025374137035028</v>
+        <v>-0.5354669478056073</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +658,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.655159161221598</v>
+        <v>-1.719168896439693</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.1441694350656331</v>
+        <v>-0.5989817782328322</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +675,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.5990045920093001</v>
+        <v>-0.6902657121583777</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.09594573104433346</v>
+        <v>-1.134712300966823</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +692,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.06180454587446649</v>
+        <v>-0.07874066250703748</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.08108884376691883</v>
+        <v>-0.1533081888441812</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +709,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4327853568336204</v>
+        <v>0.4305325812036687</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2080746432969294</v>
+        <v>0.2136583044595852</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,11 +422,14 @@
       <c r="B2">
         <v>2008</v>
       </c>
+      <c r="C2">
+        <v>0.7771450785698075</v>
+      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.5087393606160395</v>
+        <v>0.4748521911469794</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -437,13 +440,13 @@
         <v>2009</v>
       </c>
       <c r="C3">
-        <v>-1.118515468742087</v>
+        <v>0.9995687521967556</v>
       </c>
       <c r="D3">
         <v>2010</v>
       </c>
       <c r="E3">
-        <v>-0.6296678961043134</v>
+        <v>0.02446583860156171</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -454,13 +457,13 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>-0.1156872058426073</v>
+        <v>0.5978820435291077</v>
       </c>
       <c r="D4">
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.5120992642018263</v>
+        <v>0.7697980859487474</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -471,13 +474,13 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>-0.4084169314491404</v>
+        <v>-0.5061359875450311</v>
       </c>
       <c r="D5">
         <v>2012</v>
       </c>
       <c r="E5">
-        <v>-0.6403426624573716</v>
+        <v>-0.362324052998142</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -488,13 +491,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.2188016966516937</v>
+        <v>-0.2706540469742502</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>-0.1561757764150462</v>
+        <v>-0.06282556559906727</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +508,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.05915234751026066</v>
+        <v>0.006024133679316535</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.04624521867206965</v>
+        <v>0.01247916696665019</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +525,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.2979029954603529</v>
+        <v>0.3981709080043139</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.1124510725819206</v>
+        <v>0.1740860482467133</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +542,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07317408757452348</v>
+        <v>-0.2945738319855118</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.002181547367274828</v>
+        <v>-0.03768624985649449</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +559,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.06188089372189953</v>
+        <v>-0.03047919532177534</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.07932008107318644</v>
+        <v>-0.1249617237519152</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +576,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>-0.2199961235931358</v>
+        <v>0.1932702877606385</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>-0.1022879117640763</v>
+        <v>-0.250093582508859</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +593,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.0882025545300813</v>
+        <v>-0.1256133802673975</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>-0.05573300569792217</v>
+        <v>-0.02501876407304815</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +610,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.7844010209450802</v>
+        <v>-0.2736870064301455</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.3786583343736716</v>
+        <v>-0.11321783823105</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +627,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.1808804304865297</v>
+        <v>-0.2932081122163033</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.1077309791980285</v>
+        <v>-0.1126446518617819</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.8769761459347714</v>
+        <v>-0.03584227163500042</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.5354669478056073</v>
+        <v>-0.1719585843969917</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.719168896439693</v>
+        <v>1.323454226677478</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.5989817782328322</v>
+        <v>0.7858329241748896</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>-0.6902657121583777</v>
+        <v>0.8831924739260089</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-1.134712300966823</v>
+        <v>0.8355283619122744</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-0.07874066250703748</v>
+        <v>-1.081515348061801</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.1533081888441812</v>
+        <v>-0.07003400812273242</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4305325812036687</v>
+        <v>0.4626514211933497</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>0.2136583044595852</v>
+        <v>-0.4747835872719319</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
@@ -644,13 +644,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.03584227163500042</v>
+        <v>-0.0218774729098592</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1719585843969917</v>
+        <v>-0.1415666278731798</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>1.323454226677478</v>
+        <v>1.397247299320514</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.7858329241748896</v>
+        <v>0.9379151023483967</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.8831924739260089</v>
+        <v>1.060165556740755</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.8355283619122744</v>
+        <v>1.167736572641509</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>-1.081515348061801</v>
+        <v>-1.073387923554092</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.07003400812273242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>0.4626514211933497</v>
+        <v>0.4713506786523602</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.4747835872719319</v>
+        <v>-0.3387762121622728</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_INVINV_yoy_AVERAGE_10_9_summer.xlsx
@@ -422,14 +422,11 @@
       <c r="B2">
         <v>2008</v>
       </c>
-      <c r="C2">
-        <v>0.7771450785698075</v>
-      </c>
       <c r="D2">
         <v>2009</v>
       </c>
       <c r="E2">
-        <v>0.4748521911469794</v>
+        <v>0.4748521911469572</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -457,7 +454,7 @@
         <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.5978820435291077</v>
+        <v>0.5978820435290855</v>
       </c>
       <c r="D4">
         <v>2011</v>
@@ -474,7 +471,7 @@
         <v>2011</v>
       </c>
       <c r="C5">
-        <v>-0.5061359875450311</v>
+        <v>-0.50613598754502</v>
       </c>
       <c r="D5">
         <v>2012</v>
@@ -491,7 +488,7 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>-0.2706540469742502</v>
+        <v>-0.2706540469742613</v>
       </c>
       <c r="D6">
         <v>2013</v>
@@ -514,7 +511,7 @@
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.01247916696665019</v>
+        <v>0.01247916696662799</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +528,7 @@
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.1740860482467133</v>
+        <v>0.174086048246691</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -548,7 +545,7 @@
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>-0.03768624985649449</v>
+        <v>-0.03768624985648339</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +556,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.03047919532177534</v>
+        <v>-0.03047919532178645</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>-0.1249617237519152</v>
+        <v>-0.1249617237519041</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +573,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.1932702877606385</v>
+        <v>0.1932702877606163</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>-0.250093582508859</v>
+        <v>-0.2500935825088479</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -627,13 +624,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.2932081122163033</v>
+        <v>-0.2932081122163255</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.1126446518617819</v>
+        <v>-0.112644651861793</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +641,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.0218774729098592</v>
+        <v>-0.02187747290984809</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1415666278731798</v>
+        <v>-0.1415666278731686</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +664,7 @@
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.9379151023483967</v>
+        <v>0.9379151023484189</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -718,7 +715,7 @@
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.3387762121622728</v>
+        <v>-0.338776212162295</v>
       </c>
     </row>
   </sheetData>
